--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Clec11a-Itga11.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Clec11a-Itga11.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -85,13 +85,13 @@
     <t>MuSCs</t>
   </si>
   <si>
+    <t>Resolving-Mac</t>
+  </si>
+  <si>
     <t>Clec11a</t>
   </si>
   <si>
     <t>Itga11</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
   </si>
 </sst>
 </file>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,10 +522,10 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
@@ -537,16 +537,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>0.2864006666666667</v>
+        <v>0.152918</v>
       </c>
       <c r="H2">
-        <v>0.859202</v>
+        <v>0.458754</v>
       </c>
       <c r="I2">
-        <v>0.0133698428367118</v>
+        <v>0.007158013163202275</v>
       </c>
       <c r="J2">
-        <v>0.01336984283671179</v>
+        <v>0.007158013163202275</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -555,28 +555,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>0.09219833333333334</v>
+        <v>0.152959</v>
       </c>
       <c r="N2">
-        <v>0.276595</v>
+        <v>0.458877</v>
       </c>
       <c r="O2">
-        <v>0.00286159320126135</v>
+        <v>0.004761500378002596</v>
       </c>
       <c r="P2">
-        <v>0.002861593201261351</v>
+        <v>0.004761500378002596</v>
       </c>
       <c r="Q2">
-        <v>0.02640566413222223</v>
+        <v>0.023390184362</v>
       </c>
       <c r="R2">
-        <v>0.23765097719</v>
+        <v>0.210511659258</v>
       </c>
       <c r="S2">
-        <v>3.825905136346725E-05</v>
+        <v>3.408288238233519E-05</v>
       </c>
       <c r="T2">
-        <v>3.825905136346724E-05</v>
+        <v>3.408288238233519E-05</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,10 +584,10 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
@@ -599,16 +599,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>0.2864006666666667</v>
+        <v>0.152918</v>
       </c>
       <c r="H3">
-        <v>0.859202</v>
+        <v>0.458754</v>
       </c>
       <c r="I3">
-        <v>0.0133698428367118</v>
+        <v>0.007158013163202275</v>
       </c>
       <c r="J3">
-        <v>0.01336984283671179</v>
+        <v>0.007158013163202275</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>94.809954</v>
       </c>
       <c r="O3">
-        <v>0.9808836738852885</v>
+        <v>0.9837878817404418</v>
       </c>
       <c r="P3">
-        <v>0.9808836738852885</v>
+        <v>0.9837878817404418</v>
       </c>
       <c r="Q3">
-        <v>9.051211344078668</v>
+        <v>4.832716181924</v>
       </c>
       <c r="R3">
-        <v>81.46090209670801</v>
+        <v>43.49444563731601</v>
       </c>
       <c r="S3">
-        <v>0.01311426056094278</v>
+        <v>0.007041966607296966</v>
       </c>
       <c r="T3">
-        <v>0.01311426056094277</v>
+        <v>0.007041966607296966</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,10 +646,10 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
         <v>22</v>
@@ -661,46 +661,46 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>0.2864006666666667</v>
+        <v>0.152918</v>
       </c>
       <c r="H4">
-        <v>0.859202</v>
+        <v>0.458754</v>
       </c>
       <c r="I4">
-        <v>0.0133698428367118</v>
+        <v>0.007158013163202275</v>
       </c>
       <c r="J4">
-        <v>0.01336984283671179</v>
+        <v>0.007158013163202275</v>
       </c>
       <c r="K4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M4">
-        <v>0.4999033333333334</v>
+        <v>0.2671263333333334</v>
       </c>
       <c r="N4">
-        <v>1.49971</v>
+        <v>0.8013790000000001</v>
       </c>
       <c r="O4">
-        <v>0.0155156815555728</v>
+        <v>0.008315444904458803</v>
       </c>
       <c r="P4">
-        <v>0.0155156815555728</v>
+        <v>0.008315444904458805</v>
       </c>
       <c r="Q4">
-        <v>0.1431726479355556</v>
+        <v>0.04084842464066667</v>
       </c>
       <c r="R4">
-        <v>1.28855383142</v>
+        <v>0.367635821766</v>
       </c>
       <c r="S4">
-        <v>0.0002074422239024764</v>
+        <v>5.95220640839994E-05</v>
       </c>
       <c r="T4">
-        <v>0.0002074422239024763</v>
+        <v>5.952206408399941E-05</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,13 +708,13 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" t="s">
         <v>23</v>
-      </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" t="s">
-        <v>25</v>
       </c>
       <c r="E5">
         <v>2</v>
@@ -723,46 +723,46 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>0.2864006666666667</v>
+        <v>0.152918</v>
       </c>
       <c r="H5">
-        <v>0.859202</v>
+        <v>0.458754</v>
       </c>
       <c r="I5">
-        <v>0.0133698428367118</v>
+        <v>0.007158013163202275</v>
       </c>
       <c r="J5">
-        <v>0.01336984283671179</v>
+        <v>0.007158013163202275</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>0.02381166666666667</v>
+        <v>0.1007146666666667</v>
       </c>
       <c r="N5">
-        <v>0.071435</v>
+        <v>0.302144</v>
       </c>
       <c r="O5">
-        <v>0.0007390513578774184</v>
+        <v>0.00313517297709673</v>
       </c>
       <c r="P5">
-        <v>0.0007390513578774185</v>
+        <v>0.00313517297709673</v>
       </c>
       <c r="Q5">
-        <v>0.006819677207777778</v>
+        <v>0.01540108539733333</v>
       </c>
       <c r="R5">
-        <v>0.06137709487</v>
+        <v>0.138609768576</v>
       </c>
       <c r="S5">
-        <v>9.881000503079528E-06</v>
+        <v>2.244160943897446E-05</v>
       </c>
       <c r="T5">
-        <v>9.881000503079528E-06</v>
+        <v>2.244160943897446E-05</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -770,10 +770,10 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
         <v>20</v>
@@ -785,16 +785,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>20.82581466666666</v>
+        <v>20.82581466666667</v>
       </c>
       <c r="H6">
-        <v>62.47744399999999</v>
+        <v>62.47744400000001</v>
       </c>
       <c r="I6">
-        <v>0.9721970003787959</v>
+        <v>0.9748457050079848</v>
       </c>
       <c r="J6">
-        <v>0.9721970003787958</v>
+        <v>0.9748457050079848</v>
       </c>
       <c r="K6">
         <v>2</v>
@@ -803,28 +803,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>0.09219833333333334</v>
+        <v>0.152959</v>
       </c>
       <c r="N6">
-        <v>0.276595</v>
+        <v>0.458877</v>
       </c>
       <c r="O6">
-        <v>0.00286159320126135</v>
+        <v>0.004761500378002596</v>
       </c>
       <c r="P6">
-        <v>0.002861593201261351</v>
+        <v>0.004761500378002596</v>
       </c>
       <c r="Q6">
-        <v>1.920105402575555</v>
+        <v>3.185495785598667</v>
       </c>
       <c r="R6">
-        <v>17.28094862318</v>
+        <v>28.669462070388</v>
       </c>
       <c r="S6">
-        <v>0.002782032326570641</v>
+        <v>0.004641728192889727</v>
       </c>
       <c r="T6">
-        <v>0.002782032326570641</v>
+        <v>0.004641728192889727</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -832,10 +832,10 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
         <v>21</v>
@@ -847,16 +847,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>20.82581466666666</v>
+        <v>20.82581466666667</v>
       </c>
       <c r="H7">
-        <v>62.47744399999999</v>
+        <v>62.47744400000001</v>
       </c>
       <c r="I7">
-        <v>0.9721970003787959</v>
+        <v>0.9748457050079848</v>
       </c>
       <c r="J7">
-        <v>0.9721970003787958</v>
+        <v>0.9748457050079848</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,22 +871,22 @@
         <v>94.809954</v>
       </c>
       <c r="O7">
-        <v>0.9808836738852885</v>
+        <v>0.9837878817404418</v>
       </c>
       <c r="P7">
-        <v>0.9808836738852885</v>
+        <v>0.9837878817404418</v>
       </c>
       <c r="Q7">
-        <v>658.1648435197305</v>
+        <v>658.1648435197308</v>
       </c>
       <c r="R7">
         <v>5923.483591677576</v>
       </c>
       <c r="S7">
-        <v>0.9536121654718105</v>
+        <v>0.959041391153573</v>
       </c>
       <c r="T7">
-        <v>0.9536121654718104</v>
+        <v>0.959041391153573</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -894,10 +894,10 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
         <v>22</v>
@@ -909,46 +909,46 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>20.82581466666666</v>
+        <v>20.82581466666667</v>
       </c>
       <c r="H8">
-        <v>62.47744399999999</v>
+        <v>62.47744400000001</v>
       </c>
       <c r="I8">
-        <v>0.9721970003787959</v>
+        <v>0.9748457050079848</v>
       </c>
       <c r="J8">
-        <v>0.9721970003787958</v>
+        <v>0.9748457050079848</v>
       </c>
       <c r="K8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L8">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M8">
-        <v>0.4999033333333334</v>
+        <v>0.2671263333333334</v>
       </c>
       <c r="N8">
-        <v>1.49971</v>
+        <v>0.8013790000000001</v>
       </c>
       <c r="O8">
-        <v>0.0155156815555728</v>
+        <v>0.008315444904458803</v>
       </c>
       <c r="P8">
-        <v>0.0155156815555728</v>
+        <v>0.008315444904458805</v>
       </c>
       <c r="Q8">
-        <v>10.41089417124889</v>
+        <v>5.563123510586223</v>
       </c>
       <c r="R8">
-        <v>93.69804754123999</v>
+        <v>50.06811159527601</v>
       </c>
       <c r="S8">
-        <v>0.01508429906716049</v>
+        <v>0.008106275750342198</v>
       </c>
       <c r="T8">
-        <v>0.01508429906716049</v>
+        <v>0.008106275750342199</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -956,14 +956,14 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
         <v>23</v>
       </c>
-      <c r="C9" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" t="s">
-        <v>25</v>
-      </c>
       <c r="E9">
         <v>3</v>
       </c>
@@ -971,46 +971,46 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>20.82581466666666</v>
+        <v>20.82581466666667</v>
       </c>
       <c r="H9">
-        <v>62.47744399999999</v>
+        <v>62.47744400000001</v>
       </c>
       <c r="I9">
-        <v>0.9721970003787959</v>
+        <v>0.9748457050079848</v>
       </c>
       <c r="J9">
-        <v>0.9721970003787958</v>
+        <v>0.9748457050079848</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M9">
-        <v>0.02381166666666667</v>
+        <v>0.1007146666666667</v>
       </c>
       <c r="N9">
-        <v>0.071435</v>
+        <v>0.302144</v>
       </c>
       <c r="O9">
-        <v>0.0007390513578774184</v>
+        <v>0.00313517297709673</v>
       </c>
       <c r="P9">
-        <v>0.0007390513578774185</v>
+        <v>0.00313517297709673</v>
       </c>
       <c r="Q9">
-        <v>0.4958973569044443</v>
+        <v>2.097464982215111</v>
       </c>
       <c r="R9">
-        <v>4.463076212139999</v>
+        <v>18.877184839936</v>
       </c>
       <c r="S9">
-        <v>0.0007185035132543021</v>
+        <v>0.003056309911179844</v>
       </c>
       <c r="T9">
-        <v>0.0007185035132543021</v>
+        <v>0.003056309911179845</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1018,31 +1018,31 @@
         <v>22</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D10" t="s">
         <v>20</v>
       </c>
       <c r="E10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F10">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G10">
-        <v>0.3091783333333333</v>
+        <v>0.200477</v>
       </c>
       <c r="H10">
-        <v>0.927535</v>
+        <v>0.601431</v>
       </c>
       <c r="I10">
-        <v>0.01443315678449244</v>
+        <v>0.009384225564807953</v>
       </c>
       <c r="J10">
-        <v>0.01443315678449244</v>
+        <v>0.009384225564807953</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1051,28 +1051,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M10">
-        <v>0.09219833333333334</v>
+        <v>0.152959</v>
       </c>
       <c r="N10">
-        <v>0.276595</v>
+        <v>0.458877</v>
       </c>
       <c r="O10">
-        <v>0.00286159320126135</v>
+        <v>0.004761500378002596</v>
       </c>
       <c r="P10">
-        <v>0.002861593201261351</v>
+        <v>0.004761500378002596</v>
       </c>
       <c r="Q10">
-        <v>0.02850572703611111</v>
+        <v>0.030664761443</v>
       </c>
       <c r="R10">
-        <v>0.256551543325</v>
+        <v>0.275982852987</v>
       </c>
       <c r="S10">
-        <v>4.130182332724271E-05</v>
+        <v>4.46829935740947E-05</v>
       </c>
       <c r="T10">
-        <v>4.13018233272427E-05</v>
+        <v>4.46829935740947E-05</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1080,31 +1080,31 @@
         <v>22</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D11" t="s">
         <v>21</v>
       </c>
       <c r="E11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F11">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G11">
-        <v>0.3091783333333333</v>
+        <v>0.200477</v>
       </c>
       <c r="H11">
-        <v>0.927535</v>
+        <v>0.601431</v>
       </c>
       <c r="I11">
-        <v>0.01443315678449244</v>
+        <v>0.009384225564807953</v>
       </c>
       <c r="J11">
-        <v>0.01443315678449244</v>
+        <v>0.009384225564807953</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>94.809954</v>
       </c>
       <c r="O11">
-        <v>0.9808836738852885</v>
+        <v>0.9837878817404418</v>
       </c>
       <c r="P11">
-        <v>0.9808836738852885</v>
+        <v>0.9837878817404418</v>
       </c>
       <c r="Q11">
-        <v>9.771061187043333</v>
+        <v>6.335738382686001</v>
       </c>
       <c r="R11">
-        <v>87.93955068339001</v>
+        <v>57.02164544417401</v>
       </c>
       <c r="S11">
-        <v>0.01415724785253532</v>
+        <v>0.009232087390176918</v>
       </c>
       <c r="T11">
-        <v>0.01415724785253532</v>
+        <v>0.009232087390176918</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1142,61 +1142,61 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D12" t="s">
         <v>22</v>
       </c>
       <c r="E12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F12">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G12">
-        <v>0.3091783333333333</v>
+        <v>0.200477</v>
       </c>
       <c r="H12">
-        <v>0.927535</v>
+        <v>0.601431</v>
       </c>
       <c r="I12">
-        <v>0.01443315678449244</v>
+        <v>0.009384225564807953</v>
       </c>
       <c r="J12">
-        <v>0.01443315678449244</v>
+        <v>0.009384225564807953</v>
       </c>
       <c r="K12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L12">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M12">
-        <v>0.4999033333333334</v>
+        <v>0.2671263333333334</v>
       </c>
       <c r="N12">
-        <v>1.49971</v>
+        <v>0.8013790000000001</v>
       </c>
       <c r="O12">
-        <v>0.0155156815555728</v>
+        <v>0.008315444904458803</v>
       </c>
       <c r="P12">
-        <v>0.0155156815555728</v>
+        <v>0.008315444904458805</v>
       </c>
       <c r="Q12">
-        <v>0.1545592794277778</v>
+        <v>0.05355268592766668</v>
       </c>
       <c r="R12">
-        <v>1.39103351485</v>
+        <v>0.4819741733490001</v>
       </c>
       <c r="S12">
-        <v>0.0002239402645098399</v>
+        <v>7.803401065517433E-05</v>
       </c>
       <c r="T12">
-        <v>0.0002239402645098398</v>
+        <v>7.803401065517434E-05</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1204,61 +1204,309 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
         <v>23</v>
       </c>
-      <c r="C13" t="s">
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>0.200477</v>
+      </c>
+      <c r="H13">
+        <v>0.601431</v>
+      </c>
+      <c r="I13">
+        <v>0.009384225564807953</v>
+      </c>
+      <c r="J13">
+        <v>0.009384225564807953</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>0.1007146666666667</v>
+      </c>
+      <c r="N13">
+        <v>0.302144</v>
+      </c>
+      <c r="O13">
+        <v>0.00313517297709673</v>
+      </c>
+      <c r="P13">
+        <v>0.00313517297709673</v>
+      </c>
+      <c r="Q13">
+        <v>0.02019097422933333</v>
+      </c>
+      <c r="R13">
+        <v>0.181718768064</v>
+      </c>
+      <c r="S13">
+        <v>2.942117040176619E-05</v>
+      </c>
+      <c r="T13">
+        <v>2.94211704017662E-05</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
         <v>24</v>
       </c>
-      <c r="D13" t="s">
+      <c r="C14" t="s">
         <v>25</v>
       </c>
-      <c r="E13">
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
         <v>2</v>
       </c>
-      <c r="F13">
+      <c r="F14">
         <v>0.6666666666666666</v>
       </c>
-      <c r="G13">
-        <v>0.3091783333333333</v>
-      </c>
-      <c r="H13">
-        <v>0.927535</v>
-      </c>
-      <c r="I13">
-        <v>0.01443315678449244</v>
-      </c>
-      <c r="J13">
-        <v>0.01443315678449244</v>
-      </c>
-      <c r="K13">
-        <v>1</v>
-      </c>
-      <c r="L13">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M13">
-        <v>0.02381166666666667</v>
-      </c>
-      <c r="N13">
-        <v>0.071435</v>
-      </c>
-      <c r="O13">
-        <v>0.0007390513578774184</v>
-      </c>
-      <c r="P13">
-        <v>0.0007390513578774185</v>
-      </c>
-      <c r="Q13">
-        <v>0.007362051413888888</v>
-      </c>
-      <c r="R13">
-        <v>0.06625846272499999</v>
-      </c>
-      <c r="S13">
-        <v>1.066684412003681E-05</v>
-      </c>
-      <c r="T13">
-        <v>1.066684412003681E-05</v>
+      <c r="G14">
+        <v>0.183981</v>
+      </c>
+      <c r="H14">
+        <v>0.5519430000000001</v>
+      </c>
+      <c r="I14">
+        <v>0.008612056264005009</v>
+      </c>
+      <c r="J14">
+        <v>0.008612056264005009</v>
+      </c>
+      <c r="K14">
+        <v>2</v>
+      </c>
+      <c r="L14">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M14">
+        <v>0.152959</v>
+      </c>
+      <c r="N14">
+        <v>0.458877</v>
+      </c>
+      <c r="O14">
+        <v>0.004761500378002596</v>
+      </c>
+      <c r="P14">
+        <v>0.004761500378002596</v>
+      </c>
+      <c r="Q14">
+        <v>0.02814154977900001</v>
+      </c>
+      <c r="R14">
+        <v>0.2532739480110001</v>
+      </c>
+      <c r="S14">
+        <v>4.100630915643948E-05</v>
+      </c>
+      <c r="T14">
+        <v>4.100630915643948E-05</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>2</v>
+      </c>
+      <c r="F15">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G15">
+        <v>0.183981</v>
+      </c>
+      <c r="H15">
+        <v>0.5519430000000001</v>
+      </c>
+      <c r="I15">
+        <v>0.008612056264005009</v>
+      </c>
+      <c r="J15">
+        <v>0.008612056264005009</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>31.603318</v>
+      </c>
+      <c r="N15">
+        <v>94.809954</v>
+      </c>
+      <c r="O15">
+        <v>0.9837878817404418</v>
+      </c>
+      <c r="P15">
+        <v>0.9837878817404418</v>
+      </c>
+      <c r="Q15">
+        <v>5.814410048958002</v>
+      </c>
+      <c r="R15">
+        <v>52.32969044062201</v>
+      </c>
+      <c r="S15">
+        <v>0.008472436589394991</v>
+      </c>
+      <c r="T15">
+        <v>0.008472436589394991</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16">
+        <v>2</v>
+      </c>
+      <c r="F16">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G16">
+        <v>0.183981</v>
+      </c>
+      <c r="H16">
+        <v>0.5519430000000001</v>
+      </c>
+      <c r="I16">
+        <v>0.008612056264005009</v>
+      </c>
+      <c r="J16">
+        <v>0.008612056264005009</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>0.2671263333333334</v>
+      </c>
+      <c r="N16">
+        <v>0.8013790000000001</v>
+      </c>
+      <c r="O16">
+        <v>0.008315444904458803</v>
+      </c>
+      <c r="P16">
+        <v>0.008315444904458805</v>
+      </c>
+      <c r="Q16">
+        <v>0.04914616993300001</v>
+      </c>
+      <c r="R16">
+        <v>0.4423155293970001</v>
+      </c>
+      <c r="S16">
+        <v>7.161307937743296E-05</v>
+      </c>
+      <c r="T16">
+        <v>7.161307937743298E-05</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17">
+        <v>2</v>
+      </c>
+      <c r="F17">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G17">
+        <v>0.183981</v>
+      </c>
+      <c r="H17">
+        <v>0.5519430000000001</v>
+      </c>
+      <c r="I17">
+        <v>0.008612056264005009</v>
+      </c>
+      <c r="J17">
+        <v>0.008612056264005009</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>0.1007146666666667</v>
+      </c>
+      <c r="N17">
+        <v>0.302144</v>
+      </c>
+      <c r="O17">
+        <v>0.00313517297709673</v>
+      </c>
+      <c r="P17">
+        <v>0.00313517297709673</v>
+      </c>
+      <c r="Q17">
+        <v>0.018529585088</v>
+      </c>
+      <c r="R17">
+        <v>0.166766265792</v>
+      </c>
+      <c r="S17">
+        <v>2.700028607614512E-05</v>
+      </c>
+      <c r="T17">
+        <v>2.700028607614513E-05</v>
       </c>
     </row>
   </sheetData>
